--- a/Coffey Dula Master Key.xlsx
+++ b/Coffey Dula Master Key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schle\Documents\GitHub\CoffeyBehavior_Rat_Dulaglutide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA53F210-22AB-4AE7-A074-27586D75C664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6D8E04-80EE-450D-B0CE-191437F52F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="3960" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="86">
   <si>
     <t>Tag Number</t>
   </si>
@@ -262,7 +262,37 @@
     <t>{5}</t>
   </si>
   <si>
-    <t>5) high resistance against tether because of foam against the fulcrum, didn't press at all.</t>
+    <t>SessionWeightUpdated</t>
+  </si>
+  <si>
+    <t>MiniscopeSession</t>
+  </si>
+  <si>
+    <t>{0,3,5,11,13}</t>
+  </si>
+  <si>
+    <t>NJ-269</t>
+  </si>
+  <si>
+    <t>NJ-272</t>
+  </si>
+  <si>
+    <t>NJ-270</t>
+  </si>
+  <si>
+    <t>NJ-273</t>
+  </si>
+  <si>
+    <t>NJ-271</t>
+  </si>
+  <si>
+    <t>NJ-274</t>
+  </si>
+  <si>
+    <t>{1,6,11,16,21}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5) high resistance against tether because of foam against the fulcrum, didn't press at all. 6) only one infusion, conditioning seems broken from yesterday's fail. </t>
   </si>
 </sst>
 </file>
@@ -392,7 +422,13 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="29">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -488,34 +524,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53C3D0ED-7493-433A-A73D-0447F5E34631}" name="Table1" displayName="Table1" ref="A1:Z48" totalsRowShown="0" dataDxfId="26">
-  <autoFilter ref="A1:Z48" xr:uid="{53C3D0ED-7493-433A-A73D-0447F5E34631}"/>
-  <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{60D7D7A6-CBAB-41C3-A922-12D9BB352B61}" name="Tag Number" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{CAA37174-1539-4368-836A-0F1CD6010E9C}" name="Run" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{AAA8256D-38B9-490E-86D1-0A386D831626}" name="Tag Color" dataDxfId="23"/>
-    <tableColumn id="34" xr3:uid="{E413E665-5CAE-487D-8460-2E0C1B0EF263}" name="ID" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{D63A4C7A-B876-487E-AD98-D122FF8729A8}" name="Cage" dataDxfId="21"/>
-    <tableColumn id="27" xr3:uid="{68111AFE-58A7-4BEC-8B32-7AC30AD889C2}" name="Surgery Date" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{B3F9E787-5FFC-453D-A724-13791A17546D}" name="Sex" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{8E9C9BA4-BD12-4CB6-A25E-7AFA0D97EB4B}" name="LHb AAV" dataDxfId="18"/>
-    <tableColumn id="24" xr3:uid="{4331471F-4C18-4568-9BA9-18817349AAE5}" name="Treatment" dataDxfId="17"/>
-    <tableColumn id="28" xr3:uid="{9EE6ED94-81B7-4B70-8DF0-0E922F8831C7}" name="Include Photometry" dataDxfId="16"/>
-    <tableColumn id="22" xr3:uid="{2006A082-AE82-4560-BEFB-53C20E5F030A}" name="Include Miniscope" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{1250257B-B0BD-4C70-A020-5916792960B9}" name="Include Behavior" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{EF59E1C1-69F9-4FC0-AFC7-1EDC11E3B867}" name="Chamber" dataDxfId="13"/>
-    <tableColumn id="19" xr3:uid="{6E78AA1E-6C5E-4539-B77E-28F6F9F52791}" name="TimeOfBehavior" dataDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{CF489E09-84E6-4198-A9A2-606807713D0A}" name="SelfAdministration" dataDxfId="11"/>
-    <tableColumn id="17" xr3:uid="{45122074-2403-4E22-917E-D1337F203D3D}" name="Extinction" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{6381558B-1F6E-492F-98C4-E8BACF852CF6}" name="Reinstatement" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{1A40ACFA-E6E0-489A-B688-FAF22E41AC3A}" name="Behavioral Economics" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{567717B4-321E-4E6A-A33E-5FEB4544E2B6}" name="RemoveSession" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{0AFA8CA7-4137-4911-9BDA-2CA56DB483CB}" name="MedPC Data Folder" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{EE0658C2-4F47-4187-9F03-0604EA21891A}" name="USV Data Folder" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{DA846ABF-3C4A-46BA-958E-0334DFCFCAEE}" name="Video Data Folder" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{CB1345AE-8710-495B-96B4-E316D900EA1F}" name="RemoveWebcam" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{1D58CD58-2DF6-4710-A2E6-951D81BB8F09}" name="RemoveMiniscope" dataDxfId="2"/>
-    <tableColumn id="21" xr3:uid="{682B2961-0D45-41AF-9B94-C5CDBE31FB9E}" name="RemoveUSV" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{53C3D0ED-7493-433A-A73D-0447F5E34631}" name="Table1" displayName="Table1" ref="A1:AB48" totalsRowShown="0" dataDxfId="28">
+  <autoFilter ref="A1:AB48" xr:uid="{53C3D0ED-7493-433A-A73D-0447F5E34631}"/>
+  <tableColumns count="28">
+    <tableColumn id="1" xr3:uid="{60D7D7A6-CBAB-41C3-A922-12D9BB352B61}" name="Tag Number" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{CAA37174-1539-4368-836A-0F1CD6010E9C}" name="Run" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{AAA8256D-38B9-490E-86D1-0A386D831626}" name="Tag Color" dataDxfId="25"/>
+    <tableColumn id="34" xr3:uid="{E413E665-5CAE-487D-8460-2E0C1B0EF263}" name="ID" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{D63A4C7A-B876-487E-AD98-D122FF8729A8}" name="Cage" dataDxfId="23"/>
+    <tableColumn id="27" xr3:uid="{68111AFE-58A7-4BEC-8B32-7AC30AD889C2}" name="Surgery Date" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{B3F9E787-5FFC-453D-A724-13791A17546D}" name="Sex" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{8E9C9BA4-BD12-4CB6-A25E-7AFA0D97EB4B}" name="LHb AAV" dataDxfId="20"/>
+    <tableColumn id="24" xr3:uid="{4331471F-4C18-4568-9BA9-18817349AAE5}" name="Treatment" dataDxfId="19"/>
+    <tableColumn id="28" xr3:uid="{9EE6ED94-81B7-4B70-8DF0-0E922F8831C7}" name="Include Photometry" dataDxfId="18"/>
+    <tableColumn id="22" xr3:uid="{2006A082-AE82-4560-BEFB-53C20E5F030A}" name="Include Miniscope" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{1250257B-B0BD-4C70-A020-5916792960B9}" name="Include Behavior" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{EF59E1C1-69F9-4FC0-AFC7-1EDC11E3B867}" name="Chamber" dataDxfId="15"/>
+    <tableColumn id="19" xr3:uid="{6E78AA1E-6C5E-4539-B77E-28F6F9F52791}" name="TimeOfBehavior" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{CF489E09-84E6-4198-A9A2-606807713D0A}" name="SelfAdministration" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{45122074-2403-4E22-917E-D1337F203D3D}" name="Extinction" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{6381558B-1F6E-492F-98C4-E8BACF852CF6}" name="Reinstatement" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{1A40ACFA-E6E0-489A-B688-FAF22E41AC3A}" name="Behavioral Economics" dataDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{567717B4-321E-4E6A-A33E-5FEB4544E2B6}" name="RemoveSession" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{0AFA8CA7-4137-4911-9BDA-2CA56DB483CB}" name="MedPC Data Folder" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{EE0658C2-4F47-4187-9F03-0604EA21891A}" name="USV Data Folder" dataDxfId="7"/>
+    <tableColumn id="20" xr3:uid="{DA846ABF-3C4A-46BA-958E-0334DFCFCAEE}" name="Video Data Folder" dataDxfId="6"/>
+    <tableColumn id="25" xr3:uid="{AD7CC8AA-5BC1-4AF5-B659-BA03273E7C7F}" name="MiniscopeSession" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{CB1345AE-8710-495B-96B4-E316D900EA1F}" name="RemoveMiniscope" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{1D58CD58-2DF6-4710-A2E6-951D81BB8F09}" name="RemoveWebcam" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{682B2961-0D45-41AF-9B94-C5CDBE31FB9E}" name="RemoveUSV" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{D1F7FE44-EA90-441A-8809-8DB0B9F63F63}" name="SessionWeightUpdated" dataDxfId="1"/>
     <tableColumn id="12" xr3:uid="{3692F92B-7339-4679-8FAA-0EBB775BF247}" name="notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -785,39 +823,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z48"/>
+  <dimension ref="A1:AB48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z27" sqref="Z27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="11" width="22.28515625" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="15" width="18.5703125" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" customWidth="1"/>
-    <col min="17" max="18" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" customWidth="1"/>
+    <col min="18" max="18" width="22.140625" customWidth="1"/>
     <col min="19" max="19" width="17.7109375" customWidth="1"/>
     <col min="20" max="20" width="21.5703125" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="23.7109375" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="25.5703125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="18.140625" customWidth="1"/>
-    <col min="24" max="25" width="25.5703125" customWidth="1"/>
-    <col min="26" max="26" width="240.7109375" customWidth="1"/>
+    <col min="23" max="23" width="18" customWidth="1"/>
+    <col min="24" max="24" width="19.28515625" customWidth="1"/>
+    <col min="25" max="25" width="17.140625" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" customWidth="1"/>
+    <col min="27" max="27" width="25.5703125" customWidth="1"/>
+    <col min="28" max="28" width="240.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -885,19 +929,25 @@
         <v>13</v>
       </c>
       <c r="W1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X1" t="s">
         <v>71</v>
       </c>
       <c r="Y1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z1" t="s">
         <v>72</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
@@ -965,9 +1015,15 @@
       <c r="Y2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="13"/>
-    </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB2" s="13"/>
+    </row>
+    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
@@ -1035,9 +1091,15 @@
       <c r="Y3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="13"/>
-    </row>
-    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB3" s="13"/>
+    </row>
+    <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>46</v>
       </c>
@@ -1105,9 +1167,15 @@
       <c r="Y4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z4" s="14"/>
-    </row>
-    <row r="5" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB4" s="14"/>
+    </row>
+    <row r="5" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>47</v>
       </c>
@@ -1175,9 +1243,15 @@
       <c r="Y5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z5" s="14"/>
-    </row>
-    <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB5" s="14"/>
+    </row>
+    <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
@@ -1245,9 +1319,15 @@
       <c r="Y6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z6" s="13"/>
-    </row>
-    <row r="7" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB6" s="13"/>
+    </row>
+    <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>49</v>
       </c>
@@ -1315,9 +1395,15 @@
       <c r="Y7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z7" s="13"/>
-    </row>
-    <row r="8" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB7" s="13"/>
+    </row>
+    <row r="8" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>50</v>
       </c>
@@ -1385,9 +1471,15 @@
       <c r="Y8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z8" s="14"/>
-    </row>
-    <row r="9" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB8" s="14"/>
+    </row>
+    <row r="9" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
@@ -1455,9 +1547,15 @@
       <c r="Y9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z9" s="14"/>
-    </row>
-    <row r="10" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB9" s="14"/>
+    </row>
+    <row r="10" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>52</v>
       </c>
@@ -1525,9 +1623,15 @@
       <c r="Y10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z10" s="13"/>
-    </row>
-    <row r="11" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB10" s="13"/>
+    </row>
+    <row r="11" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>53</v>
       </c>
@@ -1595,9 +1699,15 @@
       <c r="Y11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z11" s="13"/>
-    </row>
-    <row r="12" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB11" s="13"/>
+    </row>
+    <row r="12" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>54</v>
       </c>
@@ -1665,9 +1775,15 @@
       <c r="Y12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z12" s="14"/>
-    </row>
-    <row r="13" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB12" s="14"/>
+    </row>
+    <row r="13" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
@@ -1735,9 +1851,15 @@
       <c r="Y13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z13" s="14"/>
-    </row>
-    <row r="14" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB13" s="14"/>
+    </row>
+    <row r="14" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
@@ -1805,9 +1927,15 @@
       <c r="Y14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z14" s="13"/>
-    </row>
-    <row r="15" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB14" s="13"/>
+    </row>
+    <row r="15" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>57</v>
       </c>
@@ -1875,9 +2003,15 @@
       <c r="Y15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z15" s="13"/>
-    </row>
-    <row r="16" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB15" s="13"/>
+    </row>
+    <row r="16" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>58</v>
       </c>
@@ -1945,9 +2079,15 @@
       <c r="Y16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z16" s="14"/>
-    </row>
-    <row r="17" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB16" s="14"/>
+    </row>
+    <row r="17" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>59</v>
       </c>
@@ -2015,9 +2155,15 @@
       <c r="Y17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z17" s="14"/>
-    </row>
-    <row r="18" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB17" s="14"/>
+    </row>
+    <row r="18" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>37</v>
       </c>
@@ -2030,7 +2176,9 @@
       <c r="D18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="F18" s="4">
         <v>45791</v>
       </c>
@@ -2085,11 +2233,17 @@
       <c r="Y18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z18" s="13" t="s">
+      <c r="Z18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB18" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>38</v>
       </c>
@@ -2102,7 +2256,9 @@
       <c r="D19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="F19" s="4">
         <v>45791</v>
       </c>
@@ -2157,11 +2313,17 @@
       <c r="Y19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z19" s="13" t="s">
+      <c r="Z19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB19" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>39</v>
       </c>
@@ -2174,7 +2336,9 @@
       <c r="D20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="F20" s="6">
         <v>45791</v>
       </c>
@@ -2229,9 +2393,15 @@
       <c r="Y20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z20" s="14"/>
-    </row>
-    <row r="21" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB20" s="14"/>
+    </row>
+    <row r="21" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>40</v>
       </c>
@@ -2244,7 +2414,9 @@
       <c r="D21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="F21" s="6">
         <v>45791</v>
       </c>
@@ -2299,9 +2471,15 @@
       <c r="Y21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z21" s="14"/>
-    </row>
-    <row r="22" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB21" s="14"/>
+    </row>
+    <row r="22" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>41</v>
       </c>
@@ -2314,7 +2492,9 @@
       <c r="D22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="F22" s="4">
         <v>45792</v>
       </c>
@@ -2369,11 +2549,17 @@
       <c r="Y22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z22" s="13" t="s">
+      <c r="Z22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB22" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>42</v>
       </c>
@@ -2386,7 +2572,9 @@
       <c r="D23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="F23" s="4">
         <v>45792</v>
       </c>
@@ -2441,9 +2629,15 @@
       <c r="Y23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z23" s="13"/>
-    </row>
-    <row r="24" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB23" s="13"/>
+    </row>
+    <row r="24" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>43</v>
       </c>
@@ -2456,7 +2650,9 @@
       <c r="D24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="F24" s="6">
         <v>45792</v>
       </c>
@@ -2511,11 +2707,17 @@
       <c r="Y24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z24" s="14" t="s">
+      <c r="Z24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB24" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>44</v>
       </c>
@@ -2528,7 +2730,9 @@
       <c r="D25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="F25" s="6">
         <v>45792</v>
       </c>
@@ -2583,11 +2787,17 @@
       <c r="Y25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z25" s="14" t="s">
+      <c r="Z25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB25" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>45</v>
       </c>
@@ -2600,7 +2810,9 @@
       <c r="D26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="F26" s="4">
         <v>45793</v>
       </c>
@@ -2655,11 +2867,17 @@
       <c r="Y26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z26" s="13" t="s">
+      <c r="Z26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB26" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>46</v>
       </c>
@@ -2672,7 +2890,9 @@
       <c r="D27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="F27" s="4">
         <v>45793</v>
       </c>
@@ -2727,9 +2947,15 @@
       <c r="Y27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z27" s="13"/>
-    </row>
-    <row r="28" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB27" s="13"/>
+    </row>
+    <row r="28" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>47</v>
       </c>
@@ -2742,7 +2968,9 @@
       <c r="D28" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F28" s="6">
         <v>45793</v>
       </c>
@@ -2797,11 +3025,17 @@
       <c r="Y28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z28" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB28" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>48</v>
       </c>
@@ -2814,7 +3048,9 @@
       <c r="D29" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F29" s="6">
         <v>45793</v>
       </c>
@@ -2869,11 +3105,17 @@
       <c r="Y29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z29" s="14" t="s">
+      <c r="Z29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB29" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -2900,8 +3142,10 @@
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -2928,8 +3172,10 @@
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -2956,8 +3202,10 @@
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -2984,8 +3232,10 @@
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -3012,8 +3262,10 @@
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -3040,8 +3292,10 @@
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
       <c r="Z35" s="8"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -3068,8 +3322,10 @@
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
       <c r="Z36" s="8"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -3096,8 +3352,10 @@
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
       <c r="Z37" s="8"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -3124,8 +3382,10 @@
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
       <c r="Z38" s="8"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -3152,8 +3412,10 @@
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
       <c r="Z39" s="8"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -3180,8 +3442,10 @@
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -3208,8 +3472,10 @@
       <c r="X41" s="8"/>
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -3236,8 +3502,10 @@
       <c r="X42" s="8"/>
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -3264,8 +3532,10 @@
       <c r="X43" s="8"/>
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -3292,8 +3562,10 @@
       <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -3320,8 +3592,10 @@
       <c r="X45" s="8"/>
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -3348,8 +3622,10 @@
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
       <c r="Z46" s="8"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -3376,8 +3652,10 @@
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
       <c r="Z47" s="8"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -3404,6 +3682,8 @@
       <c r="X48" s="8"/>
       <c r="Y48" s="8"/>
       <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
